--- a/Plan/Disney Ideation.xlsx
+++ b/Plan/Disney Ideation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobField\Desktop\Pawsome Walks\pawsome-walks\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47EC0F-F1CE-43D1-B257-5F42497FB167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25667D33-EA0B-460E-A1B3-142E760AE27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29205" yWindow="615" windowWidth="27750" windowHeight="18885" xr2:uid="{7EFFDA69-927E-463F-ADAE-39077247C69D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{7EFFDA69-927E-463F-ADAE-39077247C69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Anything:</t>
   </si>
@@ -68,14 +68,129 @@
     <t>having a 'feed' where friend's dog walks appear</t>
   </si>
   <si>
-    <t>filtering walks by specifics Eg: off lead / river / woods etc</t>
+    <t>Realistic:</t>
+  </si>
+  <si>
+    <t>Dog Profile w/ human section</t>
+  </si>
+  <si>
+    <t>Invite friends to walks @ certain times</t>
+  </si>
+  <si>
+    <t>Walks detail pages</t>
+  </si>
+  <si>
+    <t>Walks comment section</t>
+  </si>
+  <si>
+    <t>Search walks based on location (google maps api?)</t>
+  </si>
+  <si>
+    <t>Filtering walks by criteria Eg: off lead / river / woods etc</t>
+  </si>
+  <si>
+    <t>Plan / add new walk?</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>Friends (Pal?) list</t>
+  </si>
+  <si>
+    <t>Favourite List</t>
+  </si>
+  <si>
+    <t>Critical:</t>
+  </si>
+  <si>
+    <t>Auth possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing time element might be difficult? </t>
+  </si>
+  <si>
+    <t>Walk API - will need to find one that is appropriate to dog walks. Might require some searching / data manipulation once found</t>
+  </si>
+  <si>
+    <t>Should be doable - each walk has a comments section?</t>
+  </si>
+  <si>
+    <t>Don't know how to add walk, or plan it out on a map. If it is linked with a real time map it might be tricky, but if it is a list of details it might be fine. Look up 'Walkies', see how they do it</t>
+  </si>
+  <si>
+    <t>Faves list will be fine, will maybe need to look up the user.class junction table in Peak District Pilates project to re-familiarise myself with how that worked.</t>
+  </si>
+  <si>
+    <t>Filtering process will be fine, providing that the information to filter by is available (maybe on the API?)</t>
+  </si>
+  <si>
+    <t>Dog profile possible</t>
+  </si>
+  <si>
+    <t>Friends list possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method: </t>
+  </si>
+  <si>
+    <t>Ideation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database: </t>
+  </si>
+  <si>
+    <t>owner table, ownerDogs junction table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluralsight Module: Authentication and Authorization in ASP.NET Core. Owners will need the account, with basic details, then they will need to be able to add dog profiles </t>
+  </si>
+  <si>
+    <t>dog table (contain dog information: name, breed, age…)</t>
+  </si>
+  <si>
+    <t>Owners will need to be able to add dog profiles, which will create a row on the Dogs table, and a corresponding row on the ownerDogs table. May have multiple dog profiles per owner</t>
+  </si>
+  <si>
+    <t>Implementation:</t>
+  </si>
+  <si>
+    <t>Either linked by dog friends or by owner friends? If focus is on dog then dog friends. Either way, will need a junction table for friends.</t>
+  </si>
+  <si>
+    <t>ownerFriends / dogFriends junction table</t>
+  </si>
+  <si>
+    <t>Either 'timestamp [ (p) ] [ without time zone ]' column, or both 'date' &amp;&amp; 'time' columns. Both might be easier.</t>
+  </si>
+  <si>
+    <t>Implementation of this feature may be difficult due to the uncertain number of owners and dogs involved.  However could add upper limit (3/5?) owners to the table, making it easier to implement.</t>
+  </si>
+  <si>
+    <t>Will need 'walkFriends' junction table that contains owner1Id, owner2id, owner3Id (and so on) owner1Name, owner2Name, owner3Name (etc), walkLocation, walkDate, walkTime</t>
+  </si>
+  <si>
+    <t>Google maps API could be used to provide the location on a map, rather than actually map out the route? Would be a lot easier to implement, but ideally there is some kind of api that is exactly what I want</t>
+  </si>
+  <si>
+    <t>walks table: columns:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Should have a walks comment section, which will potentially need its own walksComments junction table. Map through comments to display</t>
+  </si>
+  <si>
+    <t>Depends on method. Google maps api? Dog walk api? Research similar applications.
+ Will need walks table, which will contain all of the walk info available. Map through features to display</t>
+  </si>
+  <si>
+    <t>walksComments junction table, where owners can add new comments. Columns: ownerPic, walkId, comment, ownerPic, time, date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +198,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -100,14 +284,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,81 +869,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF0B9B-D78A-47B9-A092-06381BEF4EB8}">
-  <dimension ref="D4:D14"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="39.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="1"/>
-    <col min="6" max="6" width="38.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="1"/>
-    <col min="8" max="8" width="28.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="1"/>
-    <col min="10" max="10" width="36.59765625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="11"/>
+    <col min="3" max="3" width="39.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="11"/>
+    <col min="5" max="5" width="38.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="11"/>
+    <col min="7" max="7" width="35" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="11"/>
+    <col min="9" max="9" width="36.5546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="11"/>
+    <col min="11" max="11" width="34.44140625" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+    </row>
+    <row r="10" spans="1:18" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+    </row>
+    <row r="11" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="4:4" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="I2:K4"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
